--- a/test_0403.xlsx
+++ b/test_0403.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\star8\desktop\Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F34AB3A-0720-4889-B48B-7E81D5FA901A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A215C39-5963-48F2-8816-F44898CAE83F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="792" yWindow="0" windowWidth="17268" windowHeight="8880" xr2:uid="{C2F5EE23-3891-4EEA-939C-0D20C42947E8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{FFEF8211-2BBD-4B76-AD8E-382A0216B198}"/>
   </bookViews>
   <sheets>
-    <sheet name="5871_new" sheetId="2" r:id="rId1"/>
-    <sheet name="工作表1" sheetId="1" r:id="rId2"/>
+    <sheet name="2303" sheetId="3" r:id="rId1"/>
+    <sheet name="5871_V2" sheetId="6" r:id="rId2"/>
+    <sheet name="5871" sheetId="4" r:id="rId3"/>
+    <sheet name="工作表1" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,42 +37,495 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="209">
   <si>
     <t>GRI_Standard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ReportPage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>102-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>102-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>102-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>102-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>102-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>102-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>102-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>102-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>102-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102-11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102-12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102-13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102-14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102-18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102-19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102-20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102-21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102-22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102-25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102-26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102-27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102-28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102-29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102-32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102-33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102-34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102-36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102-40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102-42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102-43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102-44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102-45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102-46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102-47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102-50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102-51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102-52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102-53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102-54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102-55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102-56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>204-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>205-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>205-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>205-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>302-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>302-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>303-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>305-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>308-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>401-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>401-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>403-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>403-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>403-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>403-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>403-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>403-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>403-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>403-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>305-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>305-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>401-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>102-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22、52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27、39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46、53、107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10、40、46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27、31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102-23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102-24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102-30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31、39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102-31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03、31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102-35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102-37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27、117</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102-38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102-39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102-41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09、10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03、22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102-49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03、10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03、166</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22、23、117</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>201-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23、46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>202-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>302-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>302-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>302-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46、65、71</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>87、94</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>303-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>303-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>303-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>303-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>305-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>305-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>305-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>307-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>308-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>124、133</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>403-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>403-10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GRI_Standard</t>
+  </si>
+  <si>
+    <t>ReportPage</t>
+  </si>
+  <si>
+    <t>102-1</t>
+  </si>
+  <si>
+    <t>102-2</t>
+  </si>
+  <si>
+    <t>102-3</t>
+  </si>
+  <si>
+    <t>102-4</t>
+  </si>
+  <si>
+    <t>102-5</t>
+  </si>
+  <si>
+    <t>102-6</t>
+  </si>
+  <si>
+    <t>102-7</t>
+  </si>
+  <si>
+    <t>102-8</t>
+  </si>
+  <si>
+    <t>102-9</t>
   </si>
   <si>
     <t>102-11</t>
@@ -145,9 +600,6 @@
     <t>102-40</t>
   </si>
   <si>
-    <t>102-41</t>
-  </si>
-  <si>
     <t>102-42</t>
   </si>
   <si>
@@ -166,12 +618,6 @@
     <t>102-47</t>
   </si>
   <si>
-    <t>102-48</t>
-  </si>
-  <si>
-    <t>102-49</t>
-  </si>
-  <si>
     <t>102-50</t>
   </si>
   <si>
@@ -238,9 +684,15 @@
     <t>302-1</t>
   </si>
   <si>
+    <t>79,83</t>
+  </si>
+  <si>
     <t>302-5</t>
   </si>
   <si>
+    <t>62,65</t>
+  </si>
+  <si>
     <t>303-1</t>
   </si>
   <si>
@@ -259,18 +711,6 @@
     <t>306-2</t>
   </si>
   <si>
-    <t>306-3</t>
-  </si>
-  <si>
-    <t>79,83</t>
-  </si>
-  <si>
-    <t>62,65</t>
-  </si>
-  <si>
-    <t>307-1</t>
-  </si>
-  <si>
     <t>308-1</t>
   </si>
   <si>
@@ -310,6 +750,9 @@
     <t>403-9</t>
   </si>
   <si>
+    <t>1,90</t>
+  </si>
+  <si>
     <t>404-1</t>
   </si>
   <si>
@@ -325,43 +768,16 @@
     <t>406-1</t>
   </si>
   <si>
-    <t>407-1</t>
-  </si>
-  <si>
-    <t>408-1</t>
-  </si>
-  <si>
-    <t>409-1</t>
-  </si>
-  <si>
-    <t>411-1</t>
-  </si>
-  <si>
     <t>412-2</t>
   </si>
   <si>
-    <t>413-2</t>
-  </si>
-  <si>
     <t>414-1</t>
   </si>
   <si>
     <t>415-1</t>
   </si>
   <si>
-    <t>416-2</t>
-  </si>
-  <si>
     <t>417-1</t>
-  </si>
-  <si>
-    <t>418-1</t>
-  </si>
-  <si>
-    <t>419-1</t>
-  </si>
-  <si>
-    <t>303-3</t>
   </si>
 </sst>
 </file>
@@ -407,8 +823,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -724,8 +1143,792 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA99296-DB40-435E-853B-C2E2F387C207}">
-  <dimension ref="A1:B113"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47099D7B-2DD7-458F-B7C1-1469F5337967}">
+  <dimension ref="A1:B96"/>
+  <sheetViews>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>41</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>44</v>
+      </c>
+      <c r="B55" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>94</v>
+      </c>
+      <c r="B56" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>45</v>
+      </c>
+      <c r="B57">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>47</v>
+      </c>
+      <c r="B59">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>96</v>
+      </c>
+      <c r="B60" s="1">
+        <v>111204</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>48</v>
+      </c>
+      <c r="B61" s="1">
+        <v>52205</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>49</v>
+      </c>
+      <c r="B62">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>50</v>
+      </c>
+      <c r="B63">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>51</v>
+      </c>
+      <c r="B64" s="1">
+        <v>35302</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>52</v>
+      </c>
+      <c r="B65">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>97</v>
+      </c>
+      <c r="B66">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>98</v>
+      </c>
+      <c r="B67">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>99</v>
+      </c>
+      <c r="B68">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>53</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>54</v>
+      </c>
+      <c r="B70" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>102</v>
+      </c>
+      <c r="B71">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>103</v>
+      </c>
+      <c r="B72">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>104</v>
+      </c>
+      <c r="B73">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>105</v>
+      </c>
+      <c r="B74" s="1">
+        <v>94305</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>67</v>
+      </c>
+      <c r="B75">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>68</v>
+      </c>
+      <c r="B76" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>55</v>
+      </c>
+      <c r="B77">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>106</v>
+      </c>
+      <c r="B78">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>107</v>
+      </c>
+      <c r="B79">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>108</v>
+      </c>
+      <c r="B80" s="1">
+        <v>103306</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>109</v>
+      </c>
+      <c r="B81">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>56</v>
+      </c>
+      <c r="B82">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>110</v>
+      </c>
+      <c r="B83" s="1">
+        <v>53401</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>57</v>
+      </c>
+      <c r="B84">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>69</v>
+      </c>
+      <c r="B85">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>58</v>
+      </c>
+      <c r="B86" s="1">
+        <v>117403</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>59</v>
+      </c>
+      <c r="B87">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>60</v>
+      </c>
+      <c r="B88">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>61</v>
+      </c>
+      <c r="B89" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>62</v>
+      </c>
+      <c r="B90">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>63</v>
+      </c>
+      <c r="B91">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>64</v>
+      </c>
+      <c r="B92" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>65</v>
+      </c>
+      <c r="B93" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>112</v>
+      </c>
+      <c r="B94">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>66</v>
+      </c>
+      <c r="B95">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>113</v>
+      </c>
+      <c r="B96" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3290A6B4-9251-4101-B1B0-CE8277D14FCA}">
+  <dimension ref="A1:B89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,23 +1936,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>11</v>
+        <v>198</v>
+      </c>
+      <c r="B2" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>116</v>
       </c>
       <c r="B3">
         <v>11</v>
@@ -757,7 +1960,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>117</v>
       </c>
       <c r="B4">
         <v>11</v>
@@ -765,7 +1968,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>118</v>
       </c>
       <c r="B5">
         <v>11</v>
@@ -773,7 +1976,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>119</v>
       </c>
       <c r="B6">
         <v>11</v>
@@ -781,7 +1984,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>120</v>
       </c>
       <c r="B7">
         <v>11</v>
@@ -789,7 +1992,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>121</v>
       </c>
       <c r="B8">
         <v>11</v>
@@ -797,28 +2000,31 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="B9">
-        <v>86</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>123</v>
       </c>
       <c r="B10">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>124</v>
+      </c>
+      <c r="B11">
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="B12">
         <v>50</v>
@@ -826,15 +2032,15 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="B14">
         <v>11</v>
@@ -842,7 +2048,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -850,7 +2056,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -858,7 +2064,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="B17">
         <v>52</v>
@@ -866,7 +2072,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>132</v>
       </c>
       <c r="B18">
         <v>52</v>
@@ -874,7 +2080,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="B19">
         <v>34</v>
@@ -882,7 +2088,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="B20">
         <v>34</v>
@@ -890,7 +2096,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>135</v>
       </c>
       <c r="B21">
         <v>34</v>
@@ -898,7 +2104,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>136</v>
       </c>
       <c r="B22">
         <v>34</v>
@@ -906,7 +2112,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>137</v>
       </c>
       <c r="B23">
         <v>34</v>
@@ -914,7 +2120,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c r="B24">
         <v>34</v>
@@ -922,7 +2128,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>139</v>
       </c>
       <c r="B25">
         <v>34</v>
@@ -930,7 +2136,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="B26">
         <v>34</v>
@@ -938,7 +2144,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>141</v>
       </c>
       <c r="B27">
         <v>34</v>
@@ -946,31 +2152,31 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>29</v>
+        <v>143</v>
+      </c>
+      <c r="B28">
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="B29">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>145</v>
       </c>
       <c r="B30">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>146</v>
       </c>
       <c r="B31">
         <v>24</v>
@@ -978,23 +2184,23 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>147</v>
       </c>
       <c r="B32">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>148</v>
       </c>
       <c r="B33">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>149</v>
       </c>
       <c r="B34">
         <v>22</v>
@@ -1002,44 +2208,47 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>150</v>
+      </c>
+      <c r="B35">
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>151</v>
       </c>
       <c r="B36">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="B37">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>153</v>
       </c>
       <c r="B38">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>154</v>
       </c>
       <c r="B39">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>155</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -1047,25 +2256,31 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>156</v>
       </c>
       <c r="B41">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>157</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>158</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>159</v>
       </c>
       <c r="B44">
         <v>3</v>
@@ -1073,313 +2288,319 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c r="B45">
-        <v>3</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>161</v>
       </c>
       <c r="B46">
-        <v>3</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>162</v>
       </c>
       <c r="B47">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>163</v>
       </c>
       <c r="B48">
-        <v>3</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>164</v>
       </c>
       <c r="B49">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>165</v>
       </c>
       <c r="B50">
-        <v>118</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>166</v>
       </c>
       <c r="B51">
-        <v>24</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>167</v>
       </c>
       <c r="B52">
-        <v>109</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>168</v>
       </c>
       <c r="B53">
-        <v>109</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>169</v>
       </c>
       <c r="B54">
-        <v>14</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>170</v>
       </c>
       <c r="B55">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>171</v>
       </c>
       <c r="B56">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>172</v>
       </c>
       <c r="B57">
-        <v>86</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>173</v>
       </c>
       <c r="B58">
-        <v>104</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>174</v>
       </c>
       <c r="B59">
-        <v>84</v>
+        <v>48</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>175</v>
       </c>
       <c r="B60">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>62</v>
-      </c>
-      <c r="B61">
-        <v>50</v>
+        <v>176</v>
+      </c>
+      <c r="B61" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>63</v>
-      </c>
-      <c r="B62">
-        <v>50</v>
+        <v>178</v>
+      </c>
+      <c r="B62" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>64</v>
-      </c>
-      <c r="B63">
-        <v>48</v>
+        <v>180</v>
+      </c>
+      <c r="B63" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>65</v>
-      </c>
-      <c r="B64">
-        <v>48</v>
+        <v>181</v>
+      </c>
+      <c r="B64" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>66</v>
-      </c>
-      <c r="B65">
-        <v>79</v>
+        <v>182</v>
+      </c>
+      <c r="B65" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>67</v>
-      </c>
-      <c r="B66">
-        <v>62</v>
+        <v>183</v>
+      </c>
+      <c r="B66" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>68</v>
-      </c>
-      <c r="B67">
-        <v>79</v>
+        <v>184</v>
+      </c>
+      <c r="B67" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>69</v>
-      </c>
-      <c r="B68">
-        <v>79</v>
+        <v>185</v>
+      </c>
+      <c r="B68" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>186</v>
       </c>
       <c r="B69">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>187</v>
       </c>
       <c r="B70">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>188</v>
       </c>
       <c r="B71">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>73</v>
+        <v>189</v>
       </c>
       <c r="B72">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>190</v>
+      </c>
+      <c r="B73">
+        <v>96</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>66</v>
-      </c>
-      <c r="B74" t="s">
-        <v>75</v>
+        <v>191</v>
+      </c>
+      <c r="B74">
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>67</v>
-      </c>
-      <c r="B75" t="s">
-        <v>76</v>
+        <v>192</v>
+      </c>
+      <c r="B75">
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>68</v>
-      </c>
-      <c r="B76" t="s">
-        <v>75</v>
+        <v>193</v>
+      </c>
+      <c r="B76">
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>69</v>
-      </c>
-      <c r="B77" t="s">
-        <v>75</v>
+        <v>194</v>
+      </c>
+      <c r="B77">
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>70</v>
-      </c>
-      <c r="B78" t="s">
-        <v>75</v>
+        <v>195</v>
+      </c>
+      <c r="B78">
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>71</v>
-      </c>
-      <c r="B79" t="s">
-        <v>75</v>
+        <v>196</v>
+      </c>
+      <c r="B79">
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>72</v>
-      </c>
-      <c r="B80" t="s">
-        <v>75</v>
+        <v>197</v>
+      </c>
+      <c r="B80">
+        <v>90</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>73</v>
-      </c>
-      <c r="B81" t="s">
-        <v>75</v>
+        <v>200</v>
+      </c>
+      <c r="B81">
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>77</v>
+        <v>201</v>
+      </c>
+      <c r="B82">
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="B83">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="B84">
         <v>86</v>
@@ -1387,207 +2608,42 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>80</v>
+        <v>204</v>
       </c>
       <c r="B85">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>81</v>
+        <v>205</v>
       </c>
       <c r="B86">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="B87">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>83</v>
+        <v>207</v>
       </c>
       <c r="B88">
-        <v>90</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>84</v>
+        <v>208</v>
       </c>
       <c r="B89">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>85</v>
-      </c>
-      <c r="B90">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>86</v>
-      </c>
-      <c r="B91">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>87</v>
-      </c>
-      <c r="B92">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>88</v>
-      </c>
-      <c r="B93">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>89</v>
-      </c>
-      <c r="B94">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>90</v>
-      </c>
-      <c r="B95">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>91</v>
-      </c>
-      <c r="B96">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>92</v>
-      </c>
-      <c r="B97">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>93</v>
-      </c>
-      <c r="B98">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>94</v>
-      </c>
-      <c r="B99">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>95</v>
-      </c>
-      <c r="B100">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>100</v>
-      </c>
-      <c r="B105">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>102</v>
-      </c>
-      <c r="B107">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>103</v>
-      </c>
-      <c r="B108">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>105</v>
-      </c>
-      <c r="B110">
         <v>68</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1596,11 +2652,741 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E18814CD-E5E8-4B33-BC13-7EC591969106}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B084D9E5-571F-4BA6-ABB9-51D9A7DF6A6B}">
+  <dimension ref="A1:B89"/>
+  <sheetViews>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="L77" sqref="L77"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>139</v>
+      </c>
+      <c r="B24">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>140</v>
+      </c>
+      <c r="B25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>141</v>
+      </c>
+      <c r="B26" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>143</v>
+      </c>
+      <c r="B27">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>144</v>
+      </c>
+      <c r="B28">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>145</v>
+      </c>
+      <c r="B29">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>146</v>
+      </c>
+      <c r="B30">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>147</v>
+      </c>
+      <c r="B31">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>148</v>
+      </c>
+      <c r="B32">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>149</v>
+      </c>
+      <c r="B33">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>150</v>
+      </c>
+      <c r="B34">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>151</v>
+      </c>
+      <c r="B35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>152</v>
+      </c>
+      <c r="B36">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>153</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>154</v>
+      </c>
+      <c r="B38">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>155</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>156</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>157</v>
+      </c>
+      <c r="B41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>158</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>159</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>160</v>
+      </c>
+      <c r="B44">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>161</v>
+      </c>
+      <c r="B45">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>162</v>
+      </c>
+      <c r="B46">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>163</v>
+      </c>
+      <c r="B47">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>164</v>
+      </c>
+      <c r="B48">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>165</v>
+      </c>
+      <c r="B49">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>166</v>
+      </c>
+      <c r="B50">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>167</v>
+      </c>
+      <c r="B51">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>168</v>
+      </c>
+      <c r="B52">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>169</v>
+      </c>
+      <c r="B53">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>170</v>
+      </c>
+      <c r="B54">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>171</v>
+      </c>
+      <c r="B55">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>172</v>
+      </c>
+      <c r="B56">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>173</v>
+      </c>
+      <c r="B57">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>174</v>
+      </c>
+      <c r="B58">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>175</v>
+      </c>
+      <c r="B59">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>176</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>178</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>180</v>
+      </c>
+      <c r="B62" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>181</v>
+      </c>
+      <c r="B63" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>182</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>183</v>
+      </c>
+      <c r="B65" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>184</v>
+      </c>
+      <c r="B66" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>185</v>
+      </c>
+      <c r="B67" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>186</v>
+      </c>
+      <c r="B68">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>187</v>
+      </c>
+      <c r="B69">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>188</v>
+      </c>
+      <c r="B70">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>189</v>
+      </c>
+      <c r="B71">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>190</v>
+      </c>
+      <c r="B72">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>191</v>
+      </c>
+      <c r="B73">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>192</v>
+      </c>
+      <c r="B74" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>193</v>
+      </c>
+      <c r="B75">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>194</v>
+      </c>
+      <c r="B76">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>195</v>
+      </c>
+      <c r="B77">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>196</v>
+      </c>
+      <c r="B78">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>197</v>
+      </c>
+      <c r="B79">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>198</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>200</v>
+      </c>
+      <c r="B81">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>201</v>
+      </c>
+      <c r="B82">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>202</v>
+      </c>
+      <c r="B83" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>203</v>
+      </c>
+      <c r="B84">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>204</v>
+      </c>
+      <c r="B85">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>205</v>
+      </c>
+      <c r="B86" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>206</v>
+      </c>
+      <c r="B87">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>207</v>
+      </c>
+      <c r="B88">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>208</v>
+      </c>
+      <c r="B89">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{165D328A-9818-4261-8FAB-0CDC6962FC4E}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData/>

--- a/test_0403.xlsx
+++ b/test_0403.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\star8\desktop\Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A215C39-5963-48F2-8816-F44898CAE83F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63975C9-BD6C-42B2-B36F-EB9C56E1ACE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{FFEF8211-2BBD-4B76-AD8E-382A0216B198}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{FFEF8211-2BBD-4B76-AD8E-382A0216B198}"/>
   </bookViews>
   <sheets>
-    <sheet name="2303" sheetId="3" r:id="rId1"/>
-    <sheet name="5871_V2" sheetId="6" r:id="rId2"/>
-    <sheet name="5871" sheetId="4" r:id="rId3"/>
+    <sheet name="2412" sheetId="7" r:id="rId1"/>
+    <sheet name="2303" sheetId="3" r:id="rId2"/>
+    <sheet name="5871" sheetId="6" r:id="rId3"/>
     <sheet name="工作表1" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,753 +37,483 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="156">
   <si>
     <t>GRI_Standard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ReportPage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>102-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>102-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>102-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>102-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>102-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>102-6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>102-7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>102-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>102-9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>102-11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>102-12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18,62</t>
   </si>
   <si>
     <t>102-13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>102-14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>102-15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102-16</t>
+  </si>
+  <si>
+    <t>102-17</t>
   </si>
   <si>
     <t>102-18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>102-19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>102-20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>102-21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>102-22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>102-25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>102-26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>102-27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>102-28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>102-29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>102-32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>102-33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>102-34</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>102-36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>102-40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>102-42</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>102-43</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>102-44</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>102-45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>102-46</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>102-47</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>102-50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>102-51</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>102-52</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>102-53</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>102-54</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>102-55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>102-56</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>103-1</t>
+  </si>
+  <si>
+    <t>103-2</t>
+  </si>
+  <si>
+    <t>103-3</t>
   </si>
   <si>
     <t>201-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>201-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>201-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>202-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>203-1</t>
   </si>
   <si>
     <t>204-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>205-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>205-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>205-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>207-1</t>
+  </si>
+  <si>
+    <t>207-4</t>
   </si>
   <si>
     <t>302-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>79,83</t>
   </si>
   <si>
     <t>302-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>62,65</t>
   </si>
   <si>
     <t>303-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>305-1</t>
+  </si>
+  <si>
+    <t>305-2</t>
   </si>
   <si>
     <t>305-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>306-1</t>
+  </si>
+  <si>
+    <t>306-2</t>
   </si>
   <si>
     <t>308-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>401-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>401-2</t>
   </si>
   <si>
     <t>401-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>402-1</t>
   </si>
   <si>
     <t>403-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>403-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>403-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>403-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>403-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>403-6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>403-7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>403-9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>305-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>305-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>401-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,90</t>
+  </si>
+  <si>
+    <t>404-1</t>
+  </si>
+  <si>
+    <t>404-3</t>
+  </si>
+  <si>
+    <t>405-1</t>
+  </si>
+  <si>
+    <t>405-2</t>
+  </si>
+  <si>
+    <t>406-1</t>
+  </si>
+  <si>
+    <t>412-2</t>
+  </si>
+  <si>
+    <t>414-1</t>
+  </si>
+  <si>
+    <t>415-1</t>
+  </si>
+  <si>
+    <t>417-1</t>
   </si>
   <si>
     <t>102-10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>22、52</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>27、39</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>46、53、107</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>10、40、46</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>27、31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>102-23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>102-24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>102-30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>31、39</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>102-31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>03、31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>102-35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>102-37</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>27、117</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>102-38</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>102-39</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>102-41</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>09、10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>03、22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>102-49</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>03、10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>03、166</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>22、23、117</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>201-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>23、46</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>202-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>302-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>302-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>302-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>46、65、71</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>87、94</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>303-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>303-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>303-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>303-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>305-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>305-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>305-7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>307-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>308-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>124、133</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>403-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>403-10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GRI_Standard</t>
-  </si>
-  <si>
-    <t>ReportPage</t>
-  </si>
-  <si>
-    <t>102-1</t>
-  </si>
-  <si>
-    <t>102-2</t>
-  </si>
-  <si>
-    <t>102-3</t>
-  </si>
-  <si>
-    <t>102-4</t>
-  </si>
-  <si>
-    <t>102-5</t>
-  </si>
-  <si>
-    <t>102-6</t>
-  </si>
-  <si>
-    <t>102-7</t>
-  </si>
-  <si>
-    <t>102-8</t>
-  </si>
-  <si>
-    <t>102-9</t>
-  </si>
-  <si>
-    <t>102-11</t>
-  </si>
-  <si>
-    <t>102-12</t>
-  </si>
-  <si>
-    <t>18,62</t>
-  </si>
-  <si>
-    <t>102-13</t>
-  </si>
-  <si>
-    <t>102-14</t>
-  </si>
-  <si>
-    <t>102-15</t>
-  </si>
-  <si>
-    <t>102-16</t>
-  </si>
-  <si>
-    <t>102-17</t>
-  </si>
-  <si>
-    <t>102-18</t>
-  </si>
-  <si>
-    <t>102-19</t>
-  </si>
-  <si>
-    <t>102-20</t>
-  </si>
-  <si>
-    <t>102-21</t>
-  </si>
-  <si>
-    <t>102-22</t>
-  </si>
-  <si>
-    <t>102-25</t>
-  </si>
-  <si>
-    <t>102-26</t>
-  </si>
-  <si>
-    <t>102-27</t>
-  </si>
-  <si>
-    <t>102-28</t>
-  </si>
-  <si>
-    <t>34,34</t>
-  </si>
-  <si>
-    <t>102-29</t>
-  </si>
-  <si>
-    <t>102-32</t>
-  </si>
-  <si>
-    <t>102-33</t>
-  </si>
-  <si>
-    <t>102-34</t>
-  </si>
-  <si>
-    <t>102-36</t>
-  </si>
-  <si>
-    <t>102-40</t>
-  </si>
-  <si>
-    <t>102-42</t>
-  </si>
-  <si>
-    <t>102-43</t>
-  </si>
-  <si>
-    <t>102-44</t>
-  </si>
-  <si>
-    <t>102-45</t>
-  </si>
-  <si>
-    <t>102-46</t>
-  </si>
-  <si>
-    <t>102-47</t>
-  </si>
-  <si>
-    <t>102-50</t>
-  </si>
-  <si>
-    <t>102-51</t>
-  </si>
-  <si>
-    <t>102-52</t>
-  </si>
-  <si>
-    <t>102-53</t>
-  </si>
-  <si>
-    <t>102-54</t>
-  </si>
-  <si>
-    <t>102-55</t>
-  </si>
-  <si>
-    <t>102-56</t>
-  </si>
-  <si>
-    <t>103-1</t>
-  </si>
-  <si>
-    <t>103-2</t>
-  </si>
-  <si>
-    <t>103-3</t>
-  </si>
-  <si>
-    <t>201-1</t>
-  </si>
-  <si>
-    <t>201-3</t>
-  </si>
-  <si>
-    <t>201-4</t>
-  </si>
-  <si>
-    <t>202-1</t>
-  </si>
-  <si>
-    <t>203-1</t>
-  </si>
-  <si>
-    <t>204-1</t>
-  </si>
-  <si>
-    <t>205-1</t>
-  </si>
-  <si>
-    <t>205-2</t>
-  </si>
-  <si>
-    <t>205-3</t>
-  </si>
-  <si>
-    <t>207-1</t>
-  </si>
-  <si>
-    <t>207-4</t>
-  </si>
-  <si>
-    <t>302-1</t>
-  </si>
-  <si>
-    <t>79,83</t>
-  </si>
-  <si>
-    <t>302-5</t>
-  </si>
-  <si>
-    <t>62,65</t>
-  </si>
-  <si>
-    <t>303-1</t>
-  </si>
-  <si>
-    <t>305-1</t>
-  </si>
-  <si>
-    <t>305-2</t>
-  </si>
-  <si>
-    <t>305-3</t>
-  </si>
-  <si>
-    <t>306-1</t>
-  </si>
-  <si>
-    <t>306-2</t>
-  </si>
-  <si>
-    <t>308-1</t>
-  </si>
-  <si>
-    <t>401-1</t>
-  </si>
-  <si>
-    <t>401-2</t>
-  </si>
-  <si>
-    <t>401-3</t>
-  </si>
-  <si>
-    <t>402-1</t>
-  </si>
-  <si>
-    <t>403-1</t>
-  </si>
-  <si>
-    <t>403-2</t>
-  </si>
-  <si>
-    <t>403-3</t>
-  </si>
-  <si>
-    <t>403-4</t>
-  </si>
-  <si>
-    <t>403-5</t>
-  </si>
-  <si>
-    <t>403-6</t>
-  </si>
-  <si>
-    <t>403-7</t>
-  </si>
-  <si>
-    <t>403-9</t>
-  </si>
-  <si>
-    <t>1,90</t>
-  </si>
-  <si>
-    <t>404-1</t>
-  </si>
-  <si>
-    <t>404-3</t>
-  </si>
-  <si>
-    <t>405-1</t>
-  </si>
-  <si>
-    <t>405-2</t>
-  </si>
-  <si>
-    <t>406-1</t>
-  </si>
-  <si>
-    <t>412-2</t>
-  </si>
-  <si>
-    <t>414-1</t>
-  </si>
-  <si>
-    <t>415-1</t>
-  </si>
-  <si>
-    <t>417-1</t>
+  </si>
+  <si>
+    <t>31-32</t>
+  </si>
+  <si>
+    <t>13-14</t>
+  </si>
+  <si>
+    <t>12,,16,,63</t>
+  </si>
+  <si>
+    <t>63-64</t>
+  </si>
+  <si>
+    <t>40-50</t>
+  </si>
+  <si>
+    <t>21,,111</t>
+  </si>
+  <si>
+    <t>36-37</t>
+  </si>
+  <si>
+    <t>33-34</t>
+  </si>
+  <si>
+    <t>76-78,202</t>
+  </si>
+  <si>
+    <t>206-1</t>
+  </si>
+  <si>
+    <t>95-101</t>
+  </si>
+  <si>
+    <t>48-49</t>
+  </si>
+  <si>
+    <t>74-78</t>
+  </si>
+  <si>
+    <t>16,,63,,65</t>
+  </si>
+  <si>
+    <t>416-2</t>
+  </si>
+  <si>
+    <t>417-3</t>
+  </si>
+  <si>
+    <t>418-1</t>
+  </si>
+  <si>
+    <t>419-1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -823,11 +553,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1143,11 +876,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47099D7B-2DD7-458F-B7C1-1469F5337967}">
-  <dimension ref="A1:B96"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F871DA-61DF-4339-B6FC-3C8128EDA31C}">
+  <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1162,82 +895,82 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>22</v>
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="B3">
-        <v>22</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>22</v>
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>111</v>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>52</v>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" t="s">
-        <v>71</v>
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -1245,7 +978,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -1253,671 +986,319 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>38</v>
+        <v>15</v>
+      </c>
+      <c r="B14" s="2">
+        <v>45084</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>74</v>
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="B18">
-        <v>31</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B19">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>31</v>
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>27</v>
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="B22">
-        <v>27</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23">
-        <v>27</v>
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B24">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B25">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B26">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="B28">
-        <v>31</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>78</v>
-      </c>
-      <c r="B29" t="s">
-        <v>79</v>
+        <v>57</v>
+      </c>
+      <c r="B29">
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="B30">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" t="s">
-        <v>81</v>
+        <v>147</v>
+      </c>
+      <c r="B31">
+        <v>302</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="B32">
-        <v>31</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33">
-        <v>31</v>
+        <v>123</v>
+      </c>
+      <c r="B33" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>82</v>
-      </c>
-      <c r="B34">
-        <v>27</v>
+        <v>63</v>
+      </c>
+      <c r="B34" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="B35">
-        <v>27</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>83</v>
-      </c>
-      <c r="B36" t="s">
-        <v>84</v>
+        <v>67</v>
+      </c>
+      <c r="B36">
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B37">
-        <v>27</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>86</v>
-      </c>
-      <c r="B38">
-        <v>27</v>
+        <v>131</v>
+      </c>
+      <c r="B38" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="B39" s="1">
-        <v>9</v>
+        <v>105401</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B40">
-        <v>130</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B41">
-        <v>9</v>
+        <v>73</v>
+      </c>
+      <c r="B41" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>32</v>
-      </c>
-      <c r="B42" t="s">
-        <v>88</v>
+        <v>74</v>
+      </c>
+      <c r="B42">
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="B43">
-        <v>10</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>34</v>
-      </c>
-      <c r="B44" t="s">
-        <v>89</v>
+        <v>83</v>
+      </c>
+      <c r="B44">
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>35</v>
+        <v>137</v>
       </c>
       <c r="B45">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>36</v>
-      </c>
-      <c r="B46">
-        <v>10</v>
+        <v>87</v>
+      </c>
+      <c r="B46" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>90</v>
-      </c>
-      <c r="B47" t="s">
-        <v>91</v>
+        <v>88</v>
+      </c>
+      <c r="B47" s="1">
+        <v>62414</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="B48">
-        <v>3</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>38</v>
+        <v>152</v>
       </c>
       <c r="B49">
-        <v>3</v>
+        <v>417</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>39</v>
+        <v>153</v>
       </c>
       <c r="B50">
-        <v>3</v>
+        <v>418</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>40</v>
+        <v>154</v>
       </c>
       <c r="B51">
-        <v>3</v>
+        <v>419</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>41</v>
+        <v>155</v>
       </c>
       <c r="B52">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>42</v>
-      </c>
-      <c r="B53">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>43</v>
-      </c>
-      <c r="B54" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>44</v>
-      </c>
-      <c r="B55" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>94</v>
-      </c>
-      <c r="B56" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>45</v>
-      </c>
-      <c r="B57">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>46</v>
-      </c>
-      <c r="B58">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>47</v>
-      </c>
-      <c r="B59">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>96</v>
-      </c>
-      <c r="B60" s="1">
-        <v>111204</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>48</v>
-      </c>
-      <c r="B61" s="1">
-        <v>52205</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>49</v>
-      </c>
-      <c r="B62">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>50</v>
-      </c>
-      <c r="B63">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>51</v>
-      </c>
-      <c r="B64" s="1">
-        <v>35302</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>52</v>
-      </c>
-      <c r="B65">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>97</v>
-      </c>
-      <c r="B66">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>98</v>
-      </c>
-      <c r="B67">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>99</v>
-      </c>
-      <c r="B68">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>53</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>54</v>
-      </c>
-      <c r="B70" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>102</v>
-      </c>
-      <c r="B71">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>103</v>
-      </c>
-      <c r="B72">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>104</v>
-      </c>
-      <c r="B73">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>105</v>
-      </c>
-      <c r="B74" s="1">
-        <v>94305</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>67</v>
-      </c>
-      <c r="B75">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>68</v>
-      </c>
-      <c r="B76" s="1">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>55</v>
-      </c>
-      <c r="B77">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>106</v>
-      </c>
-      <c r="B78">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>107</v>
-      </c>
-      <c r="B79">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>108</v>
-      </c>
-      <c r="B80" s="1">
-        <v>103306</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>109</v>
-      </c>
-      <c r="B81">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>56</v>
-      </c>
-      <c r="B82">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>110</v>
-      </c>
-      <c r="B83" s="1">
-        <v>53401</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>57</v>
-      </c>
-      <c r="B84">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>69</v>
-      </c>
-      <c r="B85">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>58</v>
-      </c>
-      <c r="B86" s="1">
-        <v>117403</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>59</v>
-      </c>
-      <c r="B87">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>60</v>
-      </c>
-      <c r="B88">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>61</v>
-      </c>
-      <c r="B89" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>62</v>
-      </c>
-      <c r="B90">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>63</v>
-      </c>
-      <c r="B91">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>64</v>
-      </c>
-      <c r="B92" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>65</v>
-      </c>
-      <c r="B93" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>112</v>
-      </c>
-      <c r="B94">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>66</v>
-      </c>
-      <c r="B95">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>113</v>
-      </c>
-      <c r="B96" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1927,723 +1308,781 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3290A6B4-9251-4101-B1B0-CE8277D14FCA}">
-  <dimension ref="A1:B89"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47099D7B-2DD7-458F-B7C1-1469F5337967}">
+  <dimension ref="A1:B96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>115</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B2" t="s">
-        <v>199</v>
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>86</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>124</v>
-      </c>
-      <c r="B11">
-        <v>84</v>
+        <v>94</v>
+      </c>
+      <c r="B11" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B12">
-        <v>50</v>
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>130</v>
-      </c>
-      <c r="B16">
-        <v>4</v>
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>131</v>
-      </c>
-      <c r="B17">
-        <v>52</v>
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>52</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c r="B19">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>134</v>
+        <v>22</v>
       </c>
       <c r="B20">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>135</v>
+        <v>23</v>
       </c>
       <c r="B21">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="B22">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="B23">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>138</v>
+        <v>24</v>
       </c>
       <c r="B24">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>139</v>
+        <v>25</v>
       </c>
       <c r="B25">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>140</v>
+        <v>26</v>
       </c>
       <c r="B26">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>141</v>
-      </c>
-      <c r="B27">
-        <v>34</v>
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="B28">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>144</v>
-      </c>
-      <c r="B29">
-        <v>34</v>
+        <v>102</v>
+      </c>
+      <c r="B29" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="B30">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>146</v>
-      </c>
-      <c r="B31">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>147</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>148</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>149</v>
+        <v>106</v>
       </c>
       <c r="B34">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>150</v>
+        <v>32</v>
       </c>
       <c r="B35">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>151</v>
-      </c>
-      <c r="B36">
-        <v>24</v>
+        <v>107</v>
+      </c>
+      <c r="B36" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>152</v>
+        <v>109</v>
       </c>
       <c r="B37">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>154</v>
-      </c>
-      <c r="B39">
-        <v>24</v>
+        <v>33</v>
+      </c>
+      <c r="B39" s="1">
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="B40">
-        <v>3</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>156</v>
+        <v>34</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>157</v>
-      </c>
-      <c r="B42">
-        <v>3</v>
+        <v>35</v>
+      </c>
+      <c r="B42" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>158</v>
+        <v>36</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>159</v>
-      </c>
-      <c r="B44">
-        <v>3</v>
+        <v>37</v>
+      </c>
+      <c r="B44" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>160</v>
+        <v>38</v>
       </c>
       <c r="B45">
-        <v>111</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>161</v>
+        <v>39</v>
       </c>
       <c r="B46">
-        <v>118</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>162</v>
-      </c>
-      <c r="B47">
-        <v>24</v>
+        <v>114</v>
+      </c>
+      <c r="B47" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>163</v>
+        <v>40</v>
       </c>
       <c r="B48">
-        <v>109</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>164</v>
+        <v>41</v>
       </c>
       <c r="B49">
-        <v>109</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>165</v>
+        <v>42</v>
       </c>
       <c r="B50">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>166</v>
+        <v>43</v>
       </c>
       <c r="B51">
-        <v>88</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>167</v>
+        <v>44</v>
       </c>
       <c r="B52">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>168</v>
+        <v>45</v>
       </c>
       <c r="B53">
-        <v>86</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>169</v>
-      </c>
-      <c r="B54">
-        <v>104</v>
+        <v>46</v>
+      </c>
+      <c r="B54" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>170</v>
-      </c>
-      <c r="B55">
-        <v>84</v>
+        <v>50</v>
+      </c>
+      <c r="B55" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>171</v>
-      </c>
-      <c r="B56">
-        <v>50</v>
+        <v>118</v>
+      </c>
+      <c r="B56" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>172</v>
+        <v>51</v>
       </c>
       <c r="B57">
-        <v>50</v>
+        <v>117</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>173</v>
+        <v>52</v>
       </c>
       <c r="B58">
-        <v>50</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>174</v>
+        <v>53</v>
       </c>
       <c r="B59">
-        <v>48</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>175</v>
-      </c>
-      <c r="B60">
-        <v>48</v>
+        <v>120</v>
+      </c>
+      <c r="B60" s="1">
+        <v>111204</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>176</v>
-      </c>
-      <c r="B61" t="s">
-        <v>177</v>
+        <v>55</v>
+      </c>
+      <c r="B61" s="1">
+        <v>52205</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>178</v>
-      </c>
-      <c r="B62" t="s">
-        <v>179</v>
+        <v>56</v>
+      </c>
+      <c r="B62">
+        <v>35</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>180</v>
-      </c>
-      <c r="B63" t="s">
-        <v>177</v>
+        <v>57</v>
+      </c>
+      <c r="B63">
+        <v>35</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>181</v>
-      </c>
-      <c r="B64" t="s">
-        <v>177</v>
+        <v>58</v>
+      </c>
+      <c r="B64" s="1">
+        <v>35302</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>182</v>
-      </c>
-      <c r="B65" t="s">
-        <v>177</v>
+        <v>61</v>
+      </c>
+      <c r="B65">
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>183</v>
-      </c>
-      <c r="B66" t="s">
-        <v>177</v>
+        <v>121</v>
+      </c>
+      <c r="B66">
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>184</v>
-      </c>
-      <c r="B67" t="s">
-        <v>177</v>
+        <v>122</v>
+      </c>
+      <c r="B67">
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>185</v>
-      </c>
-      <c r="B68" t="s">
-        <v>177</v>
+        <v>123</v>
+      </c>
+      <c r="B68">
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>186</v>
-      </c>
-      <c r="B69">
-        <v>84</v>
+        <v>63</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>187</v>
-      </c>
-      <c r="B70">
-        <v>86</v>
+        <v>65</v>
+      </c>
+      <c r="B70" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>188</v>
+        <v>126</v>
       </c>
       <c r="B71">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>189</v>
+        <v>127</v>
       </c>
       <c r="B72">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>190</v>
+        <v>128</v>
       </c>
       <c r="B73">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>191</v>
-      </c>
-      <c r="B74">
-        <v>90</v>
+        <v>129</v>
+      </c>
+      <c r="B74" s="1">
+        <v>94305</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>192</v>
+        <v>66</v>
       </c>
       <c r="B75">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>193</v>
-      </c>
-      <c r="B76">
-        <v>90</v>
+        <v>67</v>
+      </c>
+      <c r="B76" s="1">
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>194</v>
+        <v>68</v>
       </c>
       <c r="B77">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="B78">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>196</v>
+        <v>131</v>
       </c>
       <c r="B79">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>197</v>
-      </c>
-      <c r="B80">
-        <v>90</v>
+        <v>132</v>
+      </c>
+      <c r="B80" s="1">
+        <v>103306</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>200</v>
+        <v>133</v>
       </c>
       <c r="B81">
-        <v>99</v>
+        <v>36</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>201</v>
+        <v>71</v>
       </c>
       <c r="B82">
-        <v>99</v>
+        <v>53</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>202</v>
-      </c>
-      <c r="B83">
-        <v>86</v>
+        <v>134</v>
+      </c>
+      <c r="B83" s="1">
+        <v>53401</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>203</v>
+        <v>72</v>
       </c>
       <c r="B84">
-        <v>86</v>
+        <v>111</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>204</v>
+        <v>73</v>
       </c>
       <c r="B85">
-        <v>96</v>
+        <v>117</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>205</v>
-      </c>
-      <c r="B86">
-        <v>96</v>
+        <v>74</v>
+      </c>
+      <c r="B86" s="1">
+        <v>117403</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>206</v>
+        <v>76</v>
       </c>
       <c r="B87">
-        <v>84</v>
+        <v>133</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>207</v>
+        <v>77</v>
       </c>
       <c r="B88">
-        <v>14</v>
+        <v>133</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>208</v>
-      </c>
-      <c r="B89">
-        <v>68</v>
+        <v>78</v>
+      </c>
+      <c r="B89" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>79</v>
+      </c>
+      <c r="B90">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>80</v>
+      </c>
+      <c r="B91">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>81</v>
+      </c>
+      <c r="B92" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>82</v>
+      </c>
+      <c r="B93" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>136</v>
+      </c>
+      <c r="B94">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>83</v>
+      </c>
+      <c r="B95">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>137</v>
+      </c>
+      <c r="B96" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2653,34 +2092,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B084D9E5-571F-4BA6-ABB9-51D9A7DF6A6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3290A6B4-9251-4101-B1B0-CE8277D14FCA}">
   <dimension ref="A1:B89"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="L77" sqref="L77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>115</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B2">
-        <v>11</v>
+        <v>83</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>11</v>
@@ -2688,7 +2127,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>11</v>
@@ -2696,7 +2135,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>11</v>
@@ -2704,7 +2143,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>11</v>
@@ -2712,7 +2151,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>11</v>
@@ -2720,7 +2159,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>11</v>
@@ -2728,55 +2167,55 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>86</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>50</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>126</v>
-      </c>
-      <c r="B12" t="s">
-        <v>127</v>
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>128</v>
-      </c>
-      <c r="B13">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -2784,15 +2223,15 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>52</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>132</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>52</v>
@@ -2800,15 +2239,15 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>133</v>
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>134</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>34</v>
@@ -2816,7 +2255,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>135</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>34</v>
@@ -2824,7 +2263,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>136</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>34</v>
@@ -2832,7 +2271,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>137</v>
+        <v>22</v>
       </c>
       <c r="B22">
         <v>34</v>
@@ -2840,7 +2279,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>138</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>34</v>
@@ -2848,7 +2287,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>139</v>
+        <v>24</v>
       </c>
       <c r="B24">
         <v>34</v>
@@ -2856,7 +2295,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="B25">
         <v>34</v>
@@ -2864,39 +2303,39 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>141</v>
-      </c>
-      <c r="B26" t="s">
-        <v>142</v>
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>143</v>
+        <v>27</v>
       </c>
       <c r="B27">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>144</v>
+        <v>28</v>
       </c>
       <c r="B28">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>145</v>
+        <v>29</v>
       </c>
       <c r="B29">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>146</v>
+        <v>30</v>
       </c>
       <c r="B30">
         <v>24</v>
@@ -2904,23 +2343,23 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>147</v>
+        <v>31</v>
       </c>
       <c r="B31">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>148</v>
+        <v>32</v>
       </c>
       <c r="B32">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>149</v>
+        <v>33</v>
       </c>
       <c r="B33">
         <v>22</v>
@@ -2928,7 +2367,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>150</v>
+        <v>34</v>
       </c>
       <c r="B34">
         <v>22</v>
@@ -2936,47 +2375,47 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>151</v>
+        <v>35</v>
       </c>
       <c r="B35">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>152</v>
+        <v>36</v>
       </c>
       <c r="B36">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>153</v>
+        <v>37</v>
       </c>
       <c r="B37">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>154</v>
+        <v>38</v>
       </c>
       <c r="B38">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>155</v>
+        <v>39</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>156</v>
+        <v>40</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -2984,7 +2423,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>157</v>
+        <v>41</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -2992,7 +2431,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>158</v>
+        <v>42</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -3000,7 +2439,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>159</v>
+        <v>43</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -3008,39 +2447,39 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>160</v>
+        <v>44</v>
       </c>
       <c r="B44">
-        <v>111</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="B45">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>162</v>
+        <v>46</v>
       </c>
       <c r="B46">
-        <v>24</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>163</v>
+        <v>47</v>
       </c>
       <c r="B47">
-        <v>109</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>164</v>
+        <v>48</v>
       </c>
       <c r="B48">
         <v>109</v>
@@ -3048,63 +2487,63 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>165</v>
+        <v>49</v>
       </c>
       <c r="B49">
-        <v>14</v>
+        <v>109</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>166</v>
+        <v>50</v>
       </c>
       <c r="B50">
-        <v>88</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>167</v>
+        <v>51</v>
       </c>
       <c r="B51">
-        <v>14</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>168</v>
+        <v>52</v>
       </c>
       <c r="B52">
-        <v>86</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>169</v>
+        <v>53</v>
       </c>
       <c r="B53">
-        <v>104</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>170</v>
+        <v>54</v>
       </c>
       <c r="B54">
-        <v>84</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>171</v>
+        <v>55</v>
       </c>
       <c r="B55">
-        <v>50</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>172</v>
+        <v>56</v>
       </c>
       <c r="B56">
         <v>50</v>
@@ -3112,7 +2551,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>173</v>
+        <v>57</v>
       </c>
       <c r="B57">
         <v>50</v>
@@ -3120,15 +2559,15 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>174</v>
+        <v>58</v>
       </c>
       <c r="B58">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>175</v>
+        <v>59</v>
       </c>
       <c r="B59">
         <v>48</v>
@@ -3136,127 +2575,127 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>176</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>177</v>
+        <v>60</v>
+      </c>
+      <c r="B60">
+        <v>48</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>178</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>179</v>
+        <v>61</v>
+      </c>
+      <c r="B61" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>180</v>
+        <v>63</v>
       </c>
       <c r="B62" t="s">
-        <v>177</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>181</v>
+        <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>177</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>182</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>177</v>
+        <v>66</v>
+      </c>
+      <c r="B64" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>183</v>
+        <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>177</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>184</v>
+        <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>177</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>185</v>
+        <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>177</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>186</v>
-      </c>
-      <c r="B68">
-        <v>84</v>
+        <v>70</v>
+      </c>
+      <c r="B68" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>187</v>
+        <v>71</v>
       </c>
       <c r="B69">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>188</v>
+        <v>72</v>
       </c>
       <c r="B70">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>189</v>
+        <v>73</v>
       </c>
       <c r="B71">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>190</v>
+        <v>74</v>
       </c>
       <c r="B72">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>191</v>
+        <v>75</v>
       </c>
       <c r="B73">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>192</v>
-      </c>
-      <c r="B74" s="1">
+        <v>76</v>
+      </c>
+      <c r="B74">
         <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>193</v>
+        <v>77</v>
       </c>
       <c r="B75">
         <v>90</v>
@@ -3264,7 +2703,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>194</v>
+        <v>78</v>
       </c>
       <c r="B76">
         <v>90</v>
@@ -3272,7 +2711,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="B77">
         <v>90</v>
@@ -3280,7 +2719,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>196</v>
+        <v>80</v>
       </c>
       <c r="B78">
         <v>90</v>
@@ -3288,7 +2727,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>197</v>
+        <v>81</v>
       </c>
       <c r="B79">
         <v>90</v>
@@ -3296,15 +2735,15 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>198</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>199</v>
+        <v>82</v>
+      </c>
+      <c r="B80">
+        <v>90</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>200</v>
+        <v>85</v>
       </c>
       <c r="B81">
         <v>99</v>
@@ -3312,7 +2751,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>201</v>
+        <v>86</v>
       </c>
       <c r="B82">
         <v>99</v>
@@ -3320,15 +2759,15 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>202</v>
-      </c>
-      <c r="B83" s="1">
+        <v>87</v>
+      </c>
+      <c r="B83">
         <v>86</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>203</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>86</v>
@@ -3336,7 +2775,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>204</v>
+        <v>89</v>
       </c>
       <c r="B85">
         <v>96</v>
@@ -3344,15 +2783,15 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>205</v>
-      </c>
-      <c r="B86" s="1">
+        <v>90</v>
+      </c>
+      <c r="B86">
         <v>96</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>206</v>
+        <v>91</v>
       </c>
       <c r="B87">
         <v>84</v>
@@ -3360,7 +2799,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>207</v>
+        <v>92</v>
       </c>
       <c r="B88">
         <v>14</v>
@@ -3368,7 +2807,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>208</v>
+        <v>93</v>
       </c>
       <c r="B89">
         <v>68</v>
